--- a/ModernMigrationCases.xlsx
+++ b/ModernMigrationCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\pnppowershell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23DA1BC8-A9B4-4C2D-A88B-1AB06AE6DC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA050F33-EF55-4323-8479-D4BC20702D8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B544264C-9F74-4BC6-B58D-743C73B43C81}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>Classic Page</t>
   </si>
   <si>
-    <t>Not Migrated in script in not enabled</t>
-  </si>
-  <si>
     <t>SharePoint Permissions</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Data gets stored in the library "Teams Wiki Data" in the .mht format but don’t get attached to the Teams hence there would be a data loss</t>
+  </si>
+  <si>
+    <t>Not Migrated if script in not enabled at target</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E8281E-88AD-45E8-94CA-40748B846B92}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -650,358 +650,334 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E8" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E9" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E11" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>16</v>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D32" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E34" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E36" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E37" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E38" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D42" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>6</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E47" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
